--- a/Tarea_C3B/TAREA_3CB.xlsx
+++ b/Tarea_C3B/TAREA_3CB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UMG\2025_1ro\emprendimiento proyectos e inonvacion\Tarea_C3B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D294F078-BD75-4580-9E35-2D31CB466EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B1EA4BE-A64C-4336-A6AA-594941556487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{32396652-9292-493D-9FAD-6E725FEB51C0}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="63">
   <si>
     <t>Estado</t>
   </si>
@@ -200,6 +200,21 @@
   </si>
   <si>
     <t>nada</t>
+  </si>
+  <si>
+    <t>Tabla de Verdad</t>
+  </si>
+  <si>
+    <t>Diagrama de Estados</t>
+  </si>
+  <si>
+    <t>Tabla de Estados</t>
+  </si>
+  <si>
+    <t>P = producto</t>
+  </si>
+  <si>
+    <t>E = estado del producto</t>
   </si>
 </sst>
 </file>
@@ -4316,10 +4331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACFCABBC-6C10-4EB2-9418-4BC5D9A2A0A1}">
-  <dimension ref="D5:AG28"/>
+  <dimension ref="B3:AG28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE19" sqref="AE19"/>
+      <selection activeCell="AA26" sqref="AA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4335,6 +4350,16 @@
     <col min="33" max="33" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="U3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="4:33" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="5" spans="4:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="4:33" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F6" s="69" t="s">
@@ -4718,7 +4743,7 @@
       <c r="AF16" s="44"/>
       <c r="AG16" s="45"/>
     </row>
-    <row r="17" spans="4:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D17" s="67"/>
       <c r="E17" s="68"/>
       <c r="F17" s="34">
@@ -4754,7 +4779,7 @@
       <c r="AF17" s="47"/>
       <c r="AG17" s="48"/>
     </row>
-    <row r="18" spans="4:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="AD18" s="18" t="s">
         <v>24</v>
       </c>
@@ -4764,7 +4789,32 @@
       <c r="AF18" s="50"/>
       <c r="AG18" s="51"/>
     </row>
-    <row r="28" spans="4:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AA21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AA22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AA24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AA25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
       <c r="AG28" s="1"/>
     </row>
   </sheetData>
@@ -4792,10 +4842,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D527E35A-0A65-44E7-994D-378B2C7F0200}">
-  <dimension ref="A5:X52"/>
+  <dimension ref="A4:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="X59" sqref="X59"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Q61" sqref="Q61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4803,6 +4853,11 @@
     <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+    </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N5" t="s">
         <v>49</v>
@@ -5331,8 +5386,13 @@
         <v>48</v>
       </c>
     </row>
-    <row r="39" spans="18:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="18:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="9:24" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="9:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="9:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R40" t="s">
         <v>50</v>
       </c>
@@ -5345,7 +5405,7 @@
       <c r="W40" s="59"/>
       <c r="X40" s="60"/>
     </row>
-    <row r="41" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:24" x14ac:dyDescent="0.25">
       <c r="R41" t="s">
         <v>51</v>
       </c>
@@ -5362,7 +5422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:24" x14ac:dyDescent="0.25">
       <c r="R42" t="s">
         <v>52</v>
       </c>
@@ -5379,7 +5439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:24" x14ac:dyDescent="0.25">
       <c r="U43" s="17" t="s">
         <v>15</v>
       </c>
@@ -5393,7 +5453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="9:24" x14ac:dyDescent="0.25">
       <c r="R44" t="s">
         <v>53</v>
       </c>
@@ -5410,7 +5470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="18:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="9:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R45" t="s">
         <v>54</v>
       </c>
@@ -5419,12 +5479,12 @@
       <c r="W45" s="25"/>
       <c r="X45" s="26"/>
     </row>
-    <row r="46" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:24" x14ac:dyDescent="0.25">
       <c r="R46" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="18:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="9:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R48" t="s">
         <v>56</v>
       </c>
